--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il15-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il15-Il2rg.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H2">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I2">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J2">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.115164</v>
+        <v>40.43236766666666</v>
       </c>
       <c r="N2">
-        <v>69.34549200000001</v>
+        <v>121.297103</v>
       </c>
       <c r="O2">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898554</v>
       </c>
       <c r="P2">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898553</v>
       </c>
       <c r="Q2">
-        <v>123.8829784585387</v>
+        <v>152.6375519691104</v>
       </c>
       <c r="R2">
-        <v>1114.946806126848</v>
+        <v>1373.737967721994</v>
       </c>
       <c r="S2">
-        <v>0.008653700387498141</v>
+        <v>0.01585108301576873</v>
       </c>
       <c r="T2">
-        <v>0.008653700387498143</v>
+        <v>0.01585108301576874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H3">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I3">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J3">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.316803</v>
       </c>
       <c r="O3">
-        <v>0.00735013836326181</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="P3">
-        <v>0.007350138363261811</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="Q3">
-        <v>7.711797805959113</v>
+        <v>5.432168006954888</v>
       </c>
       <c r="R3">
-        <v>69.40618025363202</v>
+        <v>48.889512062594</v>
       </c>
       <c r="S3">
-        <v>0.0005386986048617716</v>
+        <v>0.000564119018701704</v>
       </c>
       <c r="T3">
-        <v>0.0005386986048617716</v>
+        <v>0.0005641190187017041</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H4">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I4">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J4">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>66.60745199999999</v>
+        <v>67.37104666666667</v>
       </c>
       <c r="N4">
-        <v>199.822356</v>
+        <v>202.11314</v>
       </c>
       <c r="O4">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="P4">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="Q4">
-        <v>356.9747349096961</v>
+        <v>254.3346390588578</v>
       </c>
       <c r="R4">
-        <v>3212.772614187264</v>
+        <v>2289.01175152972</v>
       </c>
       <c r="S4">
-        <v>0.02493605207311805</v>
+        <v>0.02641210780374275</v>
       </c>
       <c r="T4">
-        <v>0.02493605207311806</v>
+        <v>0.02641210780374276</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H5">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I5">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J5">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.161759</v>
+        <v>4.946996333333334</v>
       </c>
       <c r="N5">
-        <v>9.485277</v>
+        <v>14.840989</v>
       </c>
       <c r="O5">
-        <v>0.01615040073959013</v>
+        <v>0.0276363055545576</v>
       </c>
       <c r="P5">
-        <v>0.01615040073959013</v>
+        <v>0.02763630555455759</v>
       </c>
       <c r="Q5">
-        <v>16.94507216509867</v>
+        <v>18.67556745984689</v>
       </c>
       <c r="R5">
-        <v>152.505649485888</v>
+        <v>168.080107138622</v>
       </c>
       <c r="S5">
-        <v>0.001183678172626235</v>
+        <v>0.001939417701304133</v>
       </c>
       <c r="T5">
-        <v>0.001183678172626235</v>
+        <v>0.001939417701304133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H6">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I6">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J6">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.85093633333333</v>
+        <v>23.986958</v>
       </c>
       <c r="N6">
-        <v>77.552809</v>
+        <v>71.96087399999999</v>
       </c>
       <c r="O6">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="P6">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="Q6">
-        <v>138.5450256340551</v>
+        <v>90.55394871976132</v>
       </c>
       <c r="R6">
-        <v>1246.905230706496</v>
+        <v>814.9855384778518</v>
       </c>
       <c r="S6">
-        <v>0.009677900523005436</v>
+        <v>0.009403833722733458</v>
       </c>
       <c r="T6">
-        <v>0.009677900523005436</v>
+        <v>0.00940383372273346</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H7">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I7">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J7">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>75.59544766666667</v>
+        <v>40.82722999999999</v>
       </c>
       <c r="N7">
-        <v>226.786343</v>
+        <v>122.48169</v>
       </c>
       <c r="O7">
-        <v>0.3861447927895138</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="P7">
-        <v>0.3861447927895139</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="Q7">
-        <v>405.1448311097103</v>
+        <v>154.1282096625133</v>
       </c>
       <c r="R7">
-        <v>3646.303479987393</v>
+        <v>1387.15388696262</v>
       </c>
       <c r="S7">
-        <v>0.02830091773374953</v>
+        <v>0.01600588462612871</v>
       </c>
       <c r="T7">
-        <v>0.02830091773374954</v>
+        <v>0.01600588462612871</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I8">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J8">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.115164</v>
+        <v>40.43236766666666</v>
       </c>
       <c r="N8">
-        <v>69.34549200000001</v>
+        <v>121.297103</v>
       </c>
       <c r="O8">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898554</v>
       </c>
       <c r="P8">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898553</v>
       </c>
       <c r="Q8">
-        <v>55.72914250823068</v>
+        <v>97.47978338552322</v>
       </c>
       <c r="R8">
-        <v>501.5622825740761</v>
+        <v>877.318050469709</v>
       </c>
       <c r="S8">
-        <v>0.003892893988497535</v>
+        <v>0.01012306682641097</v>
       </c>
       <c r="T8">
-        <v>0.003892893988497537</v>
+        <v>0.01012306682641097</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I9">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J9">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.316803</v>
       </c>
       <c r="O9">
-        <v>0.00735013836326181</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="P9">
-        <v>0.007350138363261811</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="Q9">
         <v>3.469176187645445</v>
@@ -1013,10 +1013,10 @@
         <v>31.222585688809</v>
       </c>
       <c r="S9">
-        <v>0.0002423352400214872</v>
+        <v>0.0003602665205075125</v>
       </c>
       <c r="T9">
-        <v>0.0002423352400214873</v>
+        <v>0.0003602665205075126</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I10">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J10">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>66.60745199999999</v>
+        <v>67.37104666666667</v>
       </c>
       <c r="N10">
-        <v>199.822356</v>
+        <v>202.11314</v>
       </c>
       <c r="O10">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="P10">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="Q10">
-        <v>160.586192882652</v>
+        <v>162.4271694812689</v>
       </c>
       <c r="R10">
-        <v>1445.275735943868</v>
+        <v>1461.84452533142</v>
       </c>
       <c r="S10">
-        <v>0.01121756044992534</v>
+        <v>0.01686771383745048</v>
       </c>
       <c r="T10">
-        <v>0.01121756044992535</v>
+        <v>0.01686771383745048</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I11">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J11">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.161759</v>
+        <v>4.946996333333334</v>
       </c>
       <c r="N11">
-        <v>9.485277</v>
+        <v>14.840989</v>
       </c>
       <c r="O11">
-        <v>0.01615040073959013</v>
+        <v>0.0276363055545576</v>
       </c>
       <c r="P11">
-        <v>0.01615040073959013</v>
+        <v>0.02763630555455759</v>
       </c>
       <c r="Q11">
-        <v>7.622793326825668</v>
+        <v>11.92688330690745</v>
       </c>
       <c r="R11">
-        <v>68.60513994143101</v>
+        <v>107.341949762167</v>
       </c>
       <c r="S11">
-        <v>0.0005324813012002847</v>
+        <v>0.001238581299151309</v>
       </c>
       <c r="T11">
-        <v>0.0005324813012002848</v>
+        <v>0.001238581299151309</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I12">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J12">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.85093633333333</v>
+        <v>23.986958</v>
       </c>
       <c r="N12">
-        <v>77.552809</v>
+        <v>71.96087399999999</v>
       </c>
       <c r="O12">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="P12">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="Q12">
-        <v>62.32490995484745</v>
+        <v>57.83098059442467</v>
       </c>
       <c r="R12">
-        <v>560.924189593627</v>
+        <v>520.4788253498219</v>
       </c>
       <c r="S12">
-        <v>0.004353633599530846</v>
+        <v>0.006005623534050436</v>
       </c>
       <c r="T12">
-        <v>0.004353633599530848</v>
+        <v>0.006005623534050437</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I13">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J13">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>75.59544766666667</v>
+        <v>40.82722999999999</v>
       </c>
       <c r="N13">
-        <v>226.786343</v>
+        <v>122.48169</v>
       </c>
       <c r="O13">
-        <v>0.3861447927895138</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="P13">
-        <v>0.3861447927895139</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="Q13">
-        <v>182.2556602232699</v>
+        <v>98.43177054189665</v>
       </c>
       <c r="R13">
-        <v>1640.300942009429</v>
+        <v>885.88593487707</v>
       </c>
       <c r="S13">
-        <v>0.01273125571505124</v>
+        <v>0.01022192865465016</v>
       </c>
       <c r="T13">
-        <v>0.01273125571505124</v>
+        <v>0.01022192865465016</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H14">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I14">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J14">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.115164</v>
+        <v>40.43236766666666</v>
       </c>
       <c r="N14">
-        <v>69.34549200000001</v>
+        <v>121.297103</v>
       </c>
       <c r="O14">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898554</v>
       </c>
       <c r="P14">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898553</v>
       </c>
       <c r="Q14">
-        <v>446.6960984834574</v>
+        <v>559.9996402011918</v>
       </c>
       <c r="R14">
-        <v>4020.264886351117</v>
+        <v>5039.996761810726</v>
       </c>
       <c r="S14">
-        <v>0.03120343285767817</v>
+        <v>0.05815476382526161</v>
       </c>
       <c r="T14">
-        <v>0.03120343285767818</v>
+        <v>0.05815476382526162</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H15">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I15">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J15">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.316803</v>
       </c>
       <c r="O15">
-        <v>0.00735013836326181</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="P15">
-        <v>0.007350138363261811</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="Q15">
-        <v>27.80712923662989</v>
+        <v>19.92964437756956</v>
       </c>
       <c r="R15">
-        <v>250.264163129669</v>
+        <v>179.366799398126</v>
       </c>
       <c r="S15">
-        <v>0.001942434449384593</v>
+        <v>0.002069650904565964</v>
       </c>
       <c r="T15">
-        <v>0.001942434449384593</v>
+        <v>0.002069650904565964</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H16">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I16">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J16">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>66.60745199999999</v>
+        <v>67.37104666666667</v>
       </c>
       <c r="N16">
-        <v>199.822356</v>
+        <v>202.11314</v>
       </c>
       <c r="O16">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="P16">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="Q16">
-        <v>1287.176199066732</v>
+        <v>933.1079051404313</v>
       </c>
       <c r="R16">
-        <v>11584.58579160059</v>
+        <v>8397.971146263881</v>
       </c>
       <c r="S16">
-        <v>0.08991418604267837</v>
+        <v>0.09690125841407801</v>
       </c>
       <c r="T16">
-        <v>0.08991418604267838</v>
+        <v>0.09690125841407804</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H17">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I17">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J17">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.161759</v>
+        <v>4.946996333333334</v>
       </c>
       <c r="N17">
-        <v>9.485277</v>
+        <v>14.840989</v>
       </c>
       <c r="O17">
-        <v>0.01615040073959013</v>
+        <v>0.0276363055545576</v>
       </c>
       <c r="P17">
-        <v>0.01615040073959013</v>
+        <v>0.02763630555455759</v>
       </c>
       <c r="Q17">
-        <v>61.10038456335234</v>
+        <v>68.51728767363757</v>
       </c>
       <c r="R17">
-        <v>549.903461070171</v>
+        <v>616.655589062738</v>
       </c>
       <c r="S17">
-        <v>0.004268095812284078</v>
+        <v>0.007115373647697964</v>
       </c>
       <c r="T17">
-        <v>0.004268095812284078</v>
+        <v>0.007115373647697964</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H18">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I18">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J18">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.85093633333333</v>
+        <v>23.986958</v>
       </c>
       <c r="N18">
-        <v>77.552809</v>
+        <v>71.96087399999999</v>
       </c>
       <c r="O18">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="P18">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="Q18">
-        <v>499.5643726449119</v>
+        <v>332.2261006395453</v>
       </c>
       <c r="R18">
-        <v>4496.079353804207</v>
+        <v>2990.034905755908</v>
       </c>
       <c r="S18">
-        <v>0.03489648423802141</v>
+        <v>0.03450096934408572</v>
       </c>
       <c r="T18">
-        <v>0.03489648423802141</v>
+        <v>0.03450096934408573</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H19">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I19">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J19">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>75.59544766666667</v>
+        <v>40.82722999999999</v>
       </c>
       <c r="N19">
-        <v>226.786343</v>
+        <v>122.48169</v>
       </c>
       <c r="O19">
-        <v>0.3861447927895138</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="P19">
-        <v>0.3861447927895139</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="Q19">
-        <v>1460.867486633899</v>
+        <v>565.4685943425533</v>
       </c>
       <c r="R19">
-        <v>13147.80737970509</v>
+        <v>5089.21734908298</v>
       </c>
       <c r="S19">
-        <v>0.1020471875351158</v>
+        <v>0.05872270300527215</v>
       </c>
       <c r="T19">
-        <v>0.1020471875351158</v>
+        <v>0.05872270300527217</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H20">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I20">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J20">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.115164</v>
+        <v>40.43236766666666</v>
       </c>
       <c r="N20">
-        <v>69.34549200000001</v>
+        <v>121.297103</v>
       </c>
       <c r="O20">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898554</v>
       </c>
       <c r="P20">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898553</v>
       </c>
       <c r="Q20">
-        <v>9.449016739920001</v>
+        <v>8.309525428294444</v>
       </c>
       <c r="R20">
-        <v>85.04115065928001</v>
+        <v>74.78572885465</v>
       </c>
       <c r="S20">
-        <v>0.0006600499991295306</v>
+        <v>0.000862926427254231</v>
       </c>
       <c r="T20">
-        <v>0.0006600499991295309</v>
+        <v>0.0008629264272542311</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H21">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I21">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J21">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.316803</v>
       </c>
       <c r="O21">
-        <v>0.00735013836326181</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="P21">
-        <v>0.007350138363261811</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="Q21">
-        <v>0.5882075767799999</v>
+        <v>0.2957249877388889</v>
       </c>
       <c r="R21">
-        <v>5.293868191020001</v>
+        <v>2.66152488965</v>
       </c>
       <c r="S21">
-        <v>4.108855145756779E-05</v>
+        <v>3.071040690848442E-05</v>
       </c>
       <c r="T21">
-        <v>4.10885514575678E-05</v>
+        <v>3.071040690848443E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H22">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I22">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J22">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>66.60745199999999</v>
+        <v>67.37104666666667</v>
       </c>
       <c r="N22">
-        <v>199.822356</v>
+        <v>202.11314</v>
       </c>
       <c r="O22">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="P22">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="Q22">
-        <v>27.22779422856</v>
+        <v>13.84587294077778</v>
       </c>
       <c r="R22">
-        <v>245.05014805704</v>
+        <v>124.612856467</v>
       </c>
       <c r="S22">
-        <v>0.001901965680824079</v>
+        <v>0.001437864264584573</v>
       </c>
       <c r="T22">
-        <v>0.00190196568082408</v>
+        <v>0.001437864264584574</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H23">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I23">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J23">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.161759</v>
+        <v>4.946996333333334</v>
       </c>
       <c r="N23">
-        <v>9.485277</v>
+        <v>14.840989</v>
       </c>
       <c r="O23">
-        <v>0.01615040073959013</v>
+        <v>0.0276363055545576</v>
       </c>
       <c r="P23">
-        <v>0.01615040073959013</v>
+        <v>0.02763630555455759</v>
       </c>
       <c r="Q23">
-        <v>1.29246384402</v>
+        <v>1.016690196438889</v>
       </c>
       <c r="R23">
-        <v>11.63217459618</v>
+        <v>9.150211767950001</v>
       </c>
       <c r="S23">
-        <v>9.0283548288811E-05</v>
+        <v>0.0001055811004380652</v>
       </c>
       <c r="T23">
-        <v>9.028354828881102E-05</v>
+        <v>0.0001055811004380652</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H24">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I24">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J24">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.85093633333333</v>
+        <v>23.986958</v>
       </c>
       <c r="N24">
-        <v>77.552809</v>
+        <v>71.96087399999999</v>
       </c>
       <c r="O24">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="P24">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="Q24">
-        <v>10.56734575434</v>
+        <v>4.929719651633333</v>
       </c>
       <c r="R24">
-        <v>95.10611178905999</v>
+        <v>44.3674768647</v>
       </c>
       <c r="S24">
-        <v>0.000738169562816609</v>
+        <v>0.0005119408326092658</v>
       </c>
       <c r="T24">
-        <v>0.0007381695628166091</v>
+        <v>0.0005119408326092659</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H25">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I25">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J25">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>75.59544766666667</v>
+        <v>40.82722999999999</v>
       </c>
       <c r="N25">
-        <v>226.786343</v>
+        <v>122.48169</v>
       </c>
       <c r="O25">
-        <v>0.3861447927895138</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="P25">
-        <v>0.3861447927895139</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="Q25">
-        <v>30.90190709718</v>
+        <v>8.390676218833333</v>
       </c>
       <c r="R25">
-        <v>278.11716387462</v>
+        <v>75.5160859695</v>
       </c>
       <c r="S25">
-        <v>0.00215861653270467</v>
+        <v>0.0008713537631295304</v>
       </c>
       <c r="T25">
-        <v>0.002158616532704671</v>
+        <v>0.0008713537631295307</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>26.534778</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H26">
-        <v>79.60433399999999</v>
+        <v>85.080574</v>
       </c>
       <c r="I26">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J26">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.115164</v>
+        <v>40.43236766666666</v>
       </c>
       <c r="N26">
-        <v>69.34549200000001</v>
+        <v>121.297103</v>
       </c>
       <c r="O26">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898554</v>
       </c>
       <c r="P26">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898553</v>
       </c>
       <c r="Q26">
-        <v>613.355745173592</v>
+        <v>1146.669683086347</v>
       </c>
       <c r="R26">
-        <v>5520.201706562329</v>
+        <v>10320.02714777712</v>
       </c>
       <c r="S26">
-        <v>0.04284524731102865</v>
+        <v>0.1190791918750454</v>
       </c>
       <c r="T26">
-        <v>0.04284524731102865</v>
+        <v>0.1190791918750454</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>26.534778</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H27">
-        <v>79.60433399999999</v>
+        <v>85.080574</v>
       </c>
       <c r="I27">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J27">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.316803</v>
       </c>
       <c r="O27">
-        <v>0.00735013836326181</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="P27">
-        <v>0.007350138363261811</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="Q27">
-        <v>38.181803091578</v>
+        <v>40.80845300943577</v>
       </c>
       <c r="R27">
-        <v>343.636227824202</v>
+        <v>367.276077084922</v>
       </c>
       <c r="S27">
-        <v>0.002667145142296927</v>
+        <v>0.004237870485033525</v>
       </c>
       <c r="T27">
-        <v>0.002667145142296927</v>
+        <v>0.004237870485033526</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>26.534778</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H28">
-        <v>79.60433399999999</v>
+        <v>85.080574</v>
       </c>
       <c r="I28">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J28">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>66.60745199999999</v>
+        <v>67.37104666666667</v>
       </c>
       <c r="N28">
-        <v>199.822356</v>
+        <v>202.11314</v>
       </c>
       <c r="O28">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="P28">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="Q28">
-        <v>1767.413951965656</v>
+        <v>1910.655773793596</v>
       </c>
       <c r="R28">
-        <v>15906.7255676909</v>
+        <v>17195.90196414236</v>
       </c>
       <c r="S28">
-        <v>0.1234606318907134</v>
+        <v>0.1984175119048631</v>
       </c>
       <c r="T28">
-        <v>0.1234606318907134</v>
+        <v>0.1984175119048631</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>26.534778</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H29">
-        <v>79.60433399999999</v>
+        <v>85.080574</v>
       </c>
       <c r="I29">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J29">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.161759</v>
+        <v>4.946996333333334</v>
       </c>
       <c r="N29">
-        <v>9.485277</v>
+        <v>14.840989</v>
       </c>
       <c r="O29">
-        <v>0.01615040073959013</v>
+        <v>0.0276363055545576</v>
       </c>
       <c r="P29">
-        <v>0.01615040073959013</v>
+        <v>0.02763630555455759</v>
       </c>
       <c r="Q29">
-        <v>83.89657315450199</v>
+        <v>140.2977625386318</v>
       </c>
       <c r="R29">
-        <v>755.0691583905179</v>
+        <v>1262.679862847686</v>
       </c>
       <c r="S29">
-        <v>0.005860496870922941</v>
+        <v>0.01456962229960626</v>
       </c>
       <c r="T29">
-        <v>0.005860496870922941</v>
+        <v>0.01456962229960626</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>26.534778</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H30">
-        <v>79.60433399999999</v>
+        <v>85.080574</v>
       </c>
       <c r="I30">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J30">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.85093633333333</v>
+        <v>23.986958</v>
       </c>
       <c r="N30">
-        <v>77.552809</v>
+        <v>71.96087399999999</v>
       </c>
       <c r="O30">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="P30">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="Q30">
-        <v>685.948856697134</v>
+        <v>680.2747183846305</v>
       </c>
       <c r="R30">
-        <v>6173.539710274205</v>
+        <v>6122.472465461675</v>
       </c>
       <c r="S30">
-        <v>0.04791615410659957</v>
+        <v>0.07064507321779946</v>
       </c>
       <c r="T30">
-        <v>0.04791615410659957</v>
+        <v>0.07064507321779948</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>26.534778</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H31">
-        <v>79.60433399999999</v>
+        <v>85.080574</v>
       </c>
       <c r="I31">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J31">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>75.59544766666667</v>
+        <v>40.82722999999999</v>
       </c>
       <c r="N31">
-        <v>226.786343</v>
+        <v>122.48169</v>
       </c>
       <c r="O31">
-        <v>0.3861447927895138</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="P31">
-        <v>0.3861447927895139</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="Q31">
-        <v>2005.908421645618</v>
+        <v>1157.868054410006</v>
       </c>
       <c r="R31">
-        <v>18053.17579481056</v>
+        <v>10420.81248969006</v>
       </c>
       <c r="S31">
-        <v>0.1401203837821032</v>
+        <v>0.1202421187642859</v>
       </c>
       <c r="T31">
-        <v>0.1401203837821033</v>
+        <v>0.1202421187642859</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>19.08605666666667</v>
+        <v>5.192812666666667</v>
       </c>
       <c r="H32">
-        <v>57.25817000000001</v>
+        <v>15.578438</v>
       </c>
       <c r="I32">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688036</v>
       </c>
       <c r="J32">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688037</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>23.115164</v>
+        <v>40.43236766666666</v>
       </c>
       <c r="N32">
-        <v>69.34549200000001</v>
+        <v>121.297103</v>
       </c>
       <c r="O32">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898554</v>
       </c>
       <c r="P32">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898553</v>
       </c>
       <c r="Q32">
-        <v>441.1773299632934</v>
+        <v>209.9577109627904</v>
       </c>
       <c r="R32">
-        <v>3970.595969669641</v>
+        <v>1889.619398665114</v>
       </c>
       <c r="S32">
-        <v>0.03081792574543644</v>
+        <v>0.02180365882011442</v>
       </c>
       <c r="T32">
-        <v>0.03081792574543645</v>
+        <v>0.02180365882011442</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>19.08605666666667</v>
+        <v>5.192812666666667</v>
       </c>
       <c r="H33">
-        <v>57.25817000000001</v>
+        <v>15.578438</v>
       </c>
       <c r="I33">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688036</v>
       </c>
       <c r="J33">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688037</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>4.316803</v>
       </c>
       <c r="O33">
-        <v>0.00735013836326181</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="P33">
-        <v>0.007350138363261811</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="Q33">
-        <v>27.46358222561222</v>
+        <v>7.472116432634889</v>
       </c>
       <c r="R33">
-        <v>247.17224003051</v>
+        <v>67.24904789371401</v>
       </c>
       <c r="S33">
-        <v>0.001918436375239464</v>
+        <v>0.0007759632957239417</v>
       </c>
       <c r="T33">
-        <v>0.001918436375239464</v>
+        <v>0.0007759632957239418</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>19.08605666666667</v>
+        <v>5.192812666666667</v>
       </c>
       <c r="H34">
-        <v>57.25817000000001</v>
+        <v>15.578438</v>
       </c>
       <c r="I34">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688036</v>
       </c>
       <c r="J34">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688037</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>66.60745199999999</v>
+        <v>67.37104666666667</v>
       </c>
       <c r="N34">
-        <v>199.822356</v>
+        <v>202.11314</v>
       </c>
       <c r="O34">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="P34">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="Q34">
-        <v>1271.27360329428</v>
+        <v>349.8452244972578</v>
       </c>
       <c r="R34">
-        <v>11441.46242964852</v>
+        <v>3148.60702047532</v>
       </c>
       <c r="S34">
-        <v>0.08880332883767218</v>
+        <v>0.03633067763887174</v>
       </c>
       <c r="T34">
-        <v>0.0888033288376722</v>
+        <v>0.03633067763887175</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>19.08605666666667</v>
+        <v>5.192812666666667</v>
       </c>
       <c r="H35">
-        <v>57.25817000000001</v>
+        <v>15.578438</v>
       </c>
       <c r="I35">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688036</v>
       </c>
       <c r="J35">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688037</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.161759</v>
+        <v>4.946996333333334</v>
       </c>
       <c r="N35">
-        <v>9.485277</v>
+        <v>14.840989</v>
       </c>
       <c r="O35">
-        <v>0.01615040073959013</v>
+        <v>0.0276363055545576</v>
       </c>
       <c r="P35">
-        <v>0.01615040073959013</v>
+        <v>0.02763630555455759</v>
       </c>
       <c r="Q35">
-        <v>60.34551144034334</v>
+        <v>25.68882522168689</v>
       </c>
       <c r="R35">
-        <v>543.1096029630901</v>
+        <v>231.199426995182</v>
       </c>
       <c r="S35">
-        <v>0.004215365034267781</v>
+        <v>0.002667729506359861</v>
       </c>
       <c r="T35">
-        <v>0.004215365034267781</v>
+        <v>0.002667729506359861</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>19.08605666666667</v>
+        <v>5.192812666666667</v>
       </c>
       <c r="H36">
-        <v>57.25817000000001</v>
+        <v>15.578438</v>
       </c>
       <c r="I36">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688036</v>
       </c>
       <c r="J36">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688037</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.85093633333333</v>
+        <v>23.986958</v>
       </c>
       <c r="N36">
-        <v>77.552809</v>
+        <v>71.96087399999999</v>
       </c>
       <c r="O36">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="P36">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="Q36">
-        <v>493.3924357443922</v>
+        <v>124.5597793372013</v>
       </c>
       <c r="R36">
-        <v>4440.53192169953</v>
+        <v>1121.038014034812</v>
       </c>
       <c r="S36">
-        <v>0.03446535081346044</v>
+        <v>0.01293526643495552</v>
       </c>
       <c r="T36">
-        <v>0.03446535081346044</v>
+        <v>0.01293526643495552</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>19.08605666666667</v>
+        <v>5.192812666666667</v>
       </c>
       <c r="H37">
-        <v>57.25817000000001</v>
+        <v>15.578438</v>
       </c>
       <c r="I37">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688036</v>
       </c>
       <c r="J37">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688037</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>75.59544766666667</v>
+        <v>40.82722999999999</v>
       </c>
       <c r="N37">
-        <v>226.786343</v>
+        <v>122.48169</v>
       </c>
       <c r="O37">
-        <v>0.3861447927895138</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="P37">
-        <v>0.3861447927895139</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="Q37">
-        <v>1442.818997908035</v>
+        <v>212.0081570889133</v>
       </c>
       <c r="R37">
-        <v>12985.37098117231</v>
+        <v>1908.07341380022</v>
       </c>
       <c r="S37">
-        <v>0.1007864314907893</v>
+        <v>0.02201659326085488</v>
       </c>
       <c r="T37">
-        <v>0.1007864314907893</v>
+        <v>0.02201659326085488</v>
       </c>
     </row>
   </sheetData>
